--- a/results/mp/logistic/corona/confidence/84/0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,7 +55,7 @@
     <t>no</t>
   </si>
   <si>
-    <t>of</t>
+    <t>co</t>
   </si>
   <si>
     <t>the</t>
@@ -64,88 +64,88 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>special</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>you</t>
@@ -515,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,7 +526,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.75</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="C3">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D3">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9152542372881356</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -634,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4656084656084656</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D4">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -708,13 +708,13 @@
         <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1946308724832215</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1388888888888889</v>
+        <v>0.1638888888888889</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8302872062663186</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L7">
-        <v>318</v>
+        <v>89</v>
       </c>
       <c r="M7">
-        <v>318</v>
+        <v>89</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -834,37 +834,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01096121416526138</v>
+        <v>0.008389803162310423</v>
       </c>
       <c r="C8">
         <v>26</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="F8">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>2346</v>
+        <v>3073</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8205128205128205</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -884,49 +884,49 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.004868549172346641</v>
+        <v>0.005640925889904688</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9">
+        <v>0.45</v>
+      </c>
+      <c r="F9">
         <v>0.55</v>
       </c>
-      <c r="F9">
-        <v>0.45</v>
-      </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>5110</v>
+        <v>5112</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K9">
-        <v>0.8048780487804879</v>
+        <v>0.8276762402088773</v>
       </c>
       <c r="L9">
+        <v>317</v>
+      </c>
+      <c r="M9">
+        <v>317</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>66</v>
-      </c>
-      <c r="M9">
-        <v>66</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -934,13 +934,13 @@
         <v>23</v>
       </c>
       <c r="K10">
-        <v>0.8</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -960,13 +960,13 @@
         <v>24</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -986,13 +986,13 @@
         <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7890625</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="M12">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1012,13 +1012,13 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7878787878787878</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1038,13 +1038,13 @@
         <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1064,13 +1064,13 @@
         <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7735849056603774</v>
+        <v>0.765625</v>
       </c>
       <c r="L15">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="M15">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1090,13 +1090,13 @@
         <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7605633802816901</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L16">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1116,13 +1116,13 @@
         <v>30</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1142,13 +1142,13 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6944444444444444</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1168,13 +1168,13 @@
         <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6744186046511628</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1194,13 +1194,13 @@
         <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1220,13 +1220,13 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1246,13 +1246,13 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6382978723404256</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1272,13 +1272,13 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.625</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1298,13 +1298,13 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6235294117647059</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L24">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="M24">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1324,25 +1324,25 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5816326530612245</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L25">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="M25">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>123</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1350,13 +1350,13 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5774058577405857</v>
+        <v>0.5627118644067797</v>
       </c>
       <c r="L26">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="M26">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>101</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1376,13 +1376,13 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>0.574468085106383</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L27">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1402,13 +1402,13 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5571428571428572</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1428,13 +1428,13 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5384615384615384</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L29">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1454,13 +1454,13 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4719101123595505</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1480,25 +1480,25 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.02675585284280936</v>
+        <v>0.02673350041771094</v>
       </c>
       <c r="L31">
         <v>32</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N31">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="O31">
-        <v>0.11</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1506,25 +1506,25 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>0.0101427498121713</v>
+        <v>0.00976342470897484</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N32">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="O32">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>2635</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1532,25 +1532,25 @@
         <v>46</v>
       </c>
       <c r="K33">
-        <v>0.007837620578778135</v>
+        <v>0.008433734939759036</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M33">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N33">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="O33">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>4937</v>
+        <v>4938</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1558,51 +1558,25 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>0.006730099791134834</v>
+        <v>0.007665505226480836</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N34">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="O34">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>4280</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35">
-        <v>0.005836575875486381</v>
-      </c>
-      <c r="L35">
-        <v>30</v>
-      </c>
-      <c r="M35">
-        <v>55</v>
-      </c>
-      <c r="N35">
-        <v>0.55</v>
-      </c>
-      <c r="O35">
-        <v>0.45</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>5110</v>
+        <v>4272</v>
       </c>
     </row>
   </sheetData>
